--- a/research/1yr-6mnths-back-return/stock-returns-1yr-2010-01-09.xlsx
+++ b/research/1yr-6mnths-back-return/stock-returns-1yr-2010-01-09.xlsx
@@ -1074,23 +1074,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1102,10 +1085,10 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="1:21"/>
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.77"/>
@@ -1115,7 +1098,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.49"/>
   </cols>
   <sheetData>
